--- a/SWB4/swbsocial/doc/desarrollo/PIP.xlsx
+++ b/SWB4/swbsocial/doc/desarrollo/PIP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15315" windowHeight="5955"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15312" windowHeight="5952"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>P=Personal
 E=Equipo</t>
@@ -53,6 +53,24 @@
   <si>
     <t>Iniciales
 Propietario</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>JRJN CR</t>
+  </si>
+  <si>
+    <t>Los contenidos de diagrama de requerimientos, diagrama de casos de uso y diagramas de actividades no se encuentran normalizados.</t>
+  </si>
+  <si>
+    <t>Homologar contenidos de diagrama de requerimientos, diagrama de casos de uso y diagramas de actividades</t>
+  </si>
+  <si>
+    <t>Diseño detallado, Revisión de diseño detallado e Inspección de diseño</t>
   </si>
 </sst>
 </file>
@@ -60,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +94,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -134,7 +157,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,24 +467,24 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="5" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="5"/>
+    <col min="7" max="7" width="45.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -488,87 +516,110 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>41158</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="J22" s="6"/>
     </row>
@@ -584,7 +635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,7 +647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SWB4/swbsocial/doc/desarrollo/PIP.xlsx
+++ b/SWB4/swbsocial/doc/desarrollo/PIP.xlsx
@@ -55,22 +55,22 @@
 Propietario</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>JRJN CR</t>
-  </si>
-  <si>
-    <t>Los contenidos de diagrama de requerimientos, diagrama de casos de uso y diagramas de actividades no se encuentran normalizados.</t>
-  </si>
-  <si>
-    <t>Homologar contenidos de diagrama de requerimientos, diagrama de casos de uso y diagramas de actividades</t>
-  </si>
-  <si>
-    <t>Diseño detallado, Revisión de diseño detallado e Inspección de diseño</t>
+    <t>MEJS</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Diseño detallado, checlist de revisión de diseño detallado y checlist de inspección de diseño.</t>
+  </si>
+  <si>
+    <t>Especificar en el documento de diseño el contenido de los artefactos bajo los cuales se considera completo dicho diseño.</t>
+  </si>
+  <si>
+    <t>No se tiene el mismo entendimiento entre los miembros del equipo, de qué y cómo se debe representar el contenido del diseño detallado de un producto o de los productos.</t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -524,22 +524,22 @@
         <v>41158</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -591,7 +591,7 @@
       <c r="B14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="J15" s="6"/>
     </row>
